--- a/biology/Médecine/Johann_Friedrich_Dieffenbach/Johann_Friedrich_Dieffenbach.xlsx
+++ b/biology/Médecine/Johann_Friedrich_Dieffenbach/Johann_Friedrich_Dieffenbach.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Johann Friedrich Dieffenbach (né le 1er février 1792 à Königsberg, royaume de Prusse; mort le 11 novembre 1847 à Berlin) fut chirurgien en chef de l'hôpital de la Charité de Berlin et professeur de clinique chirurgicale.
 Il est le premier qui ait pratiqué la section des muscles de l'œil pour la guérison du strabisme, et la section du tendon d'Achille pour la guérison du pied bot. On lui doit aussi des méthodes nouvelles pour guérir le bégaiement, pour former artificiellement des nez, des lèvres, des paupières. Il a laissé une Chirurgie opératoire et des Essais de chirurgie, traduit par Philippe, 1840.
@@ -512,7 +524,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il étudie la théologie à Rostock puis suit les cours de l'université de Greifswald. En 1812, il devient membre du Corps Pomerania Greifswald. Il prend part aux campagnes de Holstein (1813) et de France (1814). Élève de Walther à Koenigsberg et à Bonn, il devient chirurgien. 
 Docteur de l'université de Wurtzbourg (1822), il s'installe à Berlin où il devient rapidement réputé et est nommé en 1830 chirurgien en chef de l'hôpital de la Charité. 
@@ -545,7 +559,9 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Parmi ses nombreux écrits :
 Expériences chirurgicales, 4 vol, 1829-1834
